--- a/ResultadoEleicoesDistritos/FARO_LAGOS.xlsx
+++ b/ResultadoEleicoesDistritos/FARO_LAGOS.xlsx
@@ -597,64 +597,64 @@
         <v>7148</v>
       </c>
       <c r="H2" t="n">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="I2" t="n">
-        <v>755</v>
+        <v>704</v>
       </c>
       <c r="J2" t="n">
-        <v>2926</v>
+        <v>2975</v>
       </c>
       <c r="K2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L2" t="n">
-        <v>765</v>
+        <v>833</v>
       </c>
       <c r="M2" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>482</v>
+        <v>532</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Q2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="S2" t="n">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="T2" t="n">
-        <v>510</v>
+        <v>542</v>
       </c>
       <c r="U2" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V2" t="n">
-        <v>4527</v>
+        <v>4524</v>
       </c>
       <c r="W2" t="n">
         <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>4658</v>
+        <v>4548</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Z2" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="AA2" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
